--- a/final_merge.xlsx
+++ b/final_merge.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,18 +465,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CANFINHOME</t>
+          <t>360ONE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>910.621398925781</v>
+        <v>1239.097900390625</v>
       </c>
       <c r="C2" t="n">
-        <v>810.114776611328</v>
+        <v>1065.400024414062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86</v>
+        <v>84.52335357666016</v>
       </c>
       <c r="C3" t="n">
-        <v>77.6259231567383</v>
+        <v>82.49918619791667</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>ANANDRATHI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.5299987792969</v>
+        <v>3125.10009765625</v>
       </c>
       <c r="C4" t="n">
-        <v>75.8340225219727</v>
+        <v>2855.89990234375</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -534,14 +534,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LTIM</t>
+          <t>NMDC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6138.54736328125</v>
+        <v>77.12999725341797</v>
       </c>
       <c r="C5" t="n">
-        <v>4852.9111328125</v>
+        <v>73.51000213623047</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -557,18 +557,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1010.34997558594</v>
-      </c>
+          <t>KARURVYSYA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>708.356628417969</v>
+        <v>245.3600006103516</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -580,18 +578,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GPIL</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>257.793579101563</v>
-      </c>
+          <t>CRAFTSMAN</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>235.340026855469</v>
+        <v>6519</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -603,14 +599,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MRPL</t>
+          <t>GRANULES</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>172.490005493164</v>
+        <v>569.5499877929688</v>
       </c>
       <c r="C8" t="n">
-        <v>150.869995117188</v>
+        <v>544.2000122070312</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -626,18 +622,18 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IIFL</t>
+          <t>SAIL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>531.649993896484</v>
+        <v>166.1107177734375</v>
       </c>
       <c r="C9" t="n">
-        <v>499.761535644531</v>
+        <v>141.9900054931641</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -649,14 +645,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PERSISTENT</t>
+          <t>HEG</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6438.8994140625</v>
+        <v>591</v>
       </c>
       <c r="C10" t="n">
-        <v>6090.08056640625</v>
+        <v>503.4500122070312</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -672,14 +668,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RBLBANK</t>
+          <t>IDBI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>289.491668701172</v>
+        <v>103.8000030517578</v>
       </c>
       <c r="C11" t="n">
-        <v>221.882568359375</v>
+        <v>97.40000152587891</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -695,14 +691,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>APOLLOTYRE</t>
+          <t>PNB</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>521.450012207031</v>
+        <v>131.1554565429688</v>
       </c>
       <c r="C12" t="n">
-        <v>489.462310791016</v>
+        <v>117.8099975585938</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -718,18 +714,18 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GPPL</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>173.48030090332</v>
+        <v>6350.5</v>
       </c>
       <c r="C13" t="n">
-        <v>117.937088012695</v>
+        <v>5296</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -741,18 +737,18 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HINDZINC</t>
+          <t>TVSMOTOR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>702.182983398438</v>
+        <v>3654</v>
       </c>
       <c r="C14" t="n">
-        <v>504.224670410156</v>
+        <v>3386.5</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -764,14 +760,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BHARATFORG</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1477.19995117188</v>
+        <v>12353.318359375</v>
       </c>
       <c r="C15" t="n">
-        <v>1314.5</v>
+        <v>9129.683268229166</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -787,18 +783,18 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>JBCHEPHARM</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1949.16296386719</v>
+        <v>7047</v>
       </c>
       <c r="C16" t="n">
-        <v>1794.40466308594</v>
+        <v>6695</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -810,14 +806,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3MINDIA</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36106.705078125</v>
+        <v>109.0800018310547</v>
       </c>
       <c r="C17" t="n">
-        <v>31798.193359375</v>
+        <v>104.2743377685547</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -833,18 +829,18 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>JINDALSTEL</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>362.950012207031</v>
+        <v>1075.190551757812</v>
       </c>
       <c r="C18" t="n">
-        <v>241.300003051758</v>
+        <v>1000.847473144531</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -856,18 +852,18 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GESHIP</t>
+          <t>ECLERX</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1133.19995117188</v>
+        <v>4832.2001953125</v>
       </c>
       <c r="C19" t="n">
-        <v>958.433044433594</v>
+        <v>3928</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -879,14 +875,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NLCINDIA</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>252.38737487793</v>
-      </c>
+          <t>MANAPPURAM</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>235.653518676758</v>
+        <v>269.0082092285156</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -902,18 +896,18 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHENNPETRO</t>
+          <t>JBCHEPHARM</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1028.58184814453</v>
+        <v>1870.979919433594</v>
       </c>
       <c r="C21" t="n">
-        <v>811.659729003906</v>
+        <v>1667.760864257812</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -925,14 +919,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HEG</t>
+          <t>GMDCLTD</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>537.385314941406</v>
+        <v>613.0999755859375</v>
       </c>
       <c r="C22" t="n">
-        <v>485.190399169922</v>
+        <v>488.8999938964844</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -948,14 +942,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>GESHIP</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11.960000038147</v>
+        <v>1133.199951171875</v>
       </c>
       <c r="C23" t="n">
-        <v>9.5750002861023</v>
+        <v>1047.849853515625</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -971,14 +965,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IDBI</t>
+          <t>GPIL</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99.1977996826172</v>
+        <v>283.739990234375</v>
       </c>
       <c r="C24" t="n">
-        <v>87.7775344848633</v>
+        <v>232.598747253418</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -994,18 +988,16 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MAHABANK</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>65.9911727905273</v>
-      </c>
+          <t>TORNTPHARM</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>45.377124786377</v>
+        <v>3831.800048828125</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1017,14 +1009,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>JKTYRE</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>513.153930664063</v>
+        <v>426.7052154541016</v>
       </c>
       <c r="C26" t="n">
-        <v>449.17236328125</v>
+        <v>389.4500122070312</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1040,18 +1032,16 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>KARURVYSYA</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>272.5</v>
-      </c>
+          <t>^CNXPSUBANK</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>199.507095336914</v>
+        <v>8247.7998046875</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1063,14 +1053,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CRAFTSMAN</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>8013.5</v>
-      </c>
+          <t>INDIANB</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>7093</v>
+        <v>873.9500122070312</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1078,259 +1066,6 @@
         </is>
       </c>
       <c r="E28" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>CEATLTD</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>3795.6904296875</v>
-      </c>
-      <c r="C29" t="n">
-        <v>3223.04296875</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>INFY</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1708.82788085938</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1609.01953125</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>BPCL</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>381.450012207031</v>
-      </c>
-      <c r="C31" t="n">
-        <v>347.607238769531</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>CHOLAFIN</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1653.35595703125</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1606.76330566406</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>MOTHERSON</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>122.040000915527</v>
-      </c>
-      <c r="C33" t="n">
-        <v>104.748672485352</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>BEL</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>426.705215454102</v>
-      </c>
-      <c r="C34" t="n">
-        <v>369.399993896484</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>JSWSTEEL</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1206</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1079.59997558594</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>^CNXAUTO</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>27610.75</v>
-      </c>
-      <c r="C36" t="n">
-        <v>20498.599609375</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>BAJAJ-AUTO</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>9562.5</v>
-      </c>
-      <c r="C37" t="n">
-        <v>7319.20263671875</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>TITAN</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>4201.7998046875</v>
-      </c>
-      <c r="C38" t="n">
-        <v>3796.01208496094</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>JINDALSTEL</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1076.58587646484</v>
-      </c>
-      <c r="C39" t="n">
-        <v>986.5</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -1393,7 +1128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1426,13 +1161,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>3MINDIA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1444,13 +1179,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACUTAAS</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1462,7 +1197,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AETHER</t>
+          <t>ACUTAAS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -1480,7 +1215,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ANANDRATHI</t>
+          <t>AETHER</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -1534,7 +1269,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ASAHIINDIA</t>
+          <t>APOLLOTYRE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -1552,13 +1287,13 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ASHOKLEY</t>
+          <t>ASAHIINDIA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1570,13 +1305,13 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ATHERENERG</t>
+          <t>ASHOKLEY</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1588,13 +1323,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AUBANK</t>
+          <t>ATHERENERG</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1606,13 +1341,13 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>AUBANK</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1624,7 +1359,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>BANKBARODA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -1642,13 +1377,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BELRISE</t>
+          <t>BANKINDIA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1660,13 +1395,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>BELRISE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1678,13 +1413,13 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CANBK</t>
+          <t>BHARATFORG</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1696,13 +1431,13 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CCL</t>
+          <t>BPCL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1714,13 +1449,13 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>COASTCORP</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1732,13 +1467,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CSBBANK</t>
+          <t>CANBK</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1750,13 +1485,13 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>CANFINHOME</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1768,13 +1503,13 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DCBBANK</t>
+          <t>CCL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1786,7 +1521,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DYNAMATECH</t>
+          <t>CEATLTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1804,7 +1539,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ECLERX</t>
+          <t>CHENNPETRO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1822,13 +1557,13 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1840,13 +1575,13 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EMCURE</t>
+          <t>COASTCORP</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1858,13 +1593,13 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FEDERALBNK</t>
+          <t>CSBBANK</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1876,13 +1611,13 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FIEMIND</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1894,7 +1629,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FORCEMOT</t>
+          <t>DCBBANK</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -1912,13 +1647,13 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GMDCLTD</t>
+          <t>DYNAMATECH</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1930,13 +1665,13 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GRANULES</t>
+          <t>EMCURE</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1948,13 +1683,13 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GRAPHITE</t>
+          <t>FEDERALBNK</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1966,13 +1701,13 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>FIEMIND</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1984,13 +1719,13 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HINDALCO</t>
+          <t>FORCEMOT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2002,13 +1737,13 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HINDCOPPER</t>
+          <t>GPPL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2020,7 +1755,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IIFLCAPS</t>
+          <t>GRAPHITE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -2038,13 +1773,13 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IKS</t>
+          <t>HINDALCO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2056,13 +1791,13 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>INDIACEM</t>
+          <t>HINDCOPPER</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2074,13 +1809,13 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>INDIANB</t>
+          <t>HINDZINC</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2092,7 +1827,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>IDEA</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -2110,13 +1845,13 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>JAMNAAUTO</t>
+          <t>IIFL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2128,13 +1863,13 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>KIRLOSENG</t>
+          <t>IIFLCAPS</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2146,13 +1881,13 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>LAURUSLABS</t>
+          <t>IKS</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2164,13 +1899,13 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>INDIACEM</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2182,13 +1917,13 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LUMAXTECH</t>
+          <t>INFY</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2200,13 +1935,13 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>IOC</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2218,13 +1953,13 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>M&amp;MFIN</t>
+          <t>JAMNAAUTO</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2236,13 +1971,13 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MANAPPURAM</t>
+          <t>JKTYRE</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2254,13 +1989,13 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>JSWSTEEL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2272,7 +2007,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MCX</t>
+          <t>KIRLOSENG</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -2290,13 +2025,13 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MTARTECH</t>
+          <t>LAURUSLABS</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2308,13 +2043,13 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MUTHOOTFIN</t>
+          <t>LTF</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2326,13 +2061,13 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>LTIM</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2344,13 +2079,13 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NAVINFLUOR</t>
+          <t>LUMAXTECH</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2362,13 +2097,13 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NORTHARC</t>
+          <t>M&amp;M</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2380,13 +2115,13 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PFOCUS</t>
+          <t>M&amp;MFIN</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2398,7 +2133,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>MAHABANK</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2416,13 +2151,13 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PRICOLLTD</t>
+          <t>MARUTI</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2434,13 +2169,13 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PRIVISCL</t>
+          <t>MCX</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2452,13 +2187,13 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PTCIL</t>
+          <t>MRPL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2470,13 +2205,13 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>RATEGAIN</t>
+          <t>MTARTECH</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2488,7 +2223,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RRKABEL</t>
+          <t>MUTHOOTFIN</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -2506,13 +2241,13 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SABEVENTS</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2524,13 +2259,13 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SABTNL</t>
+          <t>NAVINFLUOR</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2542,13 +2277,13 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SAGILITY</t>
+          <t>NLCINDIA</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2560,13 +2295,13 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>NORTHARC</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2578,13 +2313,13 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SANDUMA</t>
+          <t>PERSISTENT</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2596,17 +2331,13 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SERA</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>  </t>
-        </is>
-      </c>
+          <t>PFOCUS</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2618,13 +2349,13 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>PRICOLLTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2636,13 +2367,13 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>PRIVISCL</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2654,7 +2385,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SENORES</t>
+          <t>PTCIL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -2672,13 +2403,13 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SHRIPISTON</t>
+          <t>RATEGAIN</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2690,13 +2421,13 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOUTHBANK</t>
+          <t>RBLBANK</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2708,13 +2439,13 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>RRKABEL</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2726,7 +2457,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>THANGAMAYL</t>
+          <t>SABEVENTS</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -2744,7 +2475,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>THYROCARE</t>
+          <t>SABTNL</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -2762,13 +2493,13 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>SAGILITY</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2780,13 +2511,13 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TVSMOTOR</t>
+          <t>SANDUMA</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2798,13 +2529,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>UJJIVFB</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr"/>
+          <t>SERA</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2816,13 +2551,13 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>UNIONBANK</t>
+          <t>SBILIFE</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2834,13 +2569,13 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>VEDL</t>
+          <t>SBIN</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2852,13 +2587,13 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>^CNXMETAL</t>
+          <t>SENORES</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2870,7 +2605,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>^CNXPSUBANK</t>
+          <t>SHRIPISTON</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -2880,6 +2615,204 @@
         </is>
       </c>
       <c r="D82" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>SOUTHBANK</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>TATASTEEL</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>THANGAMAYL</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>THYROCARE</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>TITAN</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>UJJIVFB</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>UNIONBANK</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>VEDL</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>^CNXAUTO</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>^CNXMETAL</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
